--- a/pred_ohlcv/54/2019-10-19 INS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 INS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>214.15</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>214.1333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>214.1166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>214.1166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>214.1</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
         <v>214.0833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>214.0833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>214.1</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>214.0833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>214.1</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>214.1333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>214.1833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>214.2333333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1234,6 +1332,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1284,7 +1388,10 @@
         <v>215.65</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1336,7 +1446,10 @@
         <v>215.8666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1388,7 +1504,10 @@
         <v>216.05</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1440,7 +1562,10 @@
         <v>216.3166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1492,7 +1620,10 @@
         <v>216.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1544,7 +1678,10 @@
         <v>216.8666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1596,7 +1736,10 @@
         <v>217.15</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1752,7 +1910,10 @@
         <v>218.1666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +1968,9 @@
         <v>218.5166666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,6 +1997,9 @@
         <v>218.7166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1856,6 +2026,9 @@
         <v>218.9166666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,7 +2055,10 @@
         <v>219.1166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1908,7 +2084,10 @@
         <v>219.3166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1934,7 +2113,10 @@
         <v>219.5166666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1960,7 +2142,10 @@
         <v>219.7166666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1986,553 +2171,10 @@
         <v>219.9333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>227</v>
-      </c>
-      <c r="C63" t="n">
-        <v>228</v>
-      </c>
-      <c r="D63" t="n">
-        <v>228</v>
-      </c>
-      <c r="E63" t="n">
-        <v>226</v>
-      </c>
-      <c r="F63" t="n">
-        <v>6626.8235</v>
-      </c>
-      <c r="G63" t="n">
-        <v>220.1666666666667</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>228</v>
-      </c>
-      <c r="C64" t="n">
-        <v>229</v>
-      </c>
-      <c r="D64" t="n">
-        <v>229</v>
-      </c>
-      <c r="E64" t="n">
-        <v>228</v>
-      </c>
-      <c r="F64" t="n">
-        <v>540</v>
-      </c>
-      <c r="G64" t="n">
-        <v>220.4166666666667</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>229</v>
-      </c>
-      <c r="C65" t="n">
-        <v>230</v>
-      </c>
-      <c r="D65" t="n">
-        <v>230</v>
-      </c>
-      <c r="E65" t="n">
-        <v>229</v>
-      </c>
-      <c r="F65" t="n">
-        <v>13396.5674</v>
-      </c>
-      <c r="G65" t="n">
-        <v>220.6666666666667</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>230</v>
-      </c>
-      <c r="C66" t="n">
-        <v>231</v>
-      </c>
-      <c r="D66" t="n">
-        <v>231</v>
-      </c>
-      <c r="E66" t="n">
-        <v>229</v>
-      </c>
-      <c r="F66" t="n">
-        <v>6774.8007</v>
-      </c>
-      <c r="G66" t="n">
-        <v>220.95</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>232</v>
-      </c>
-      <c r="C67" t="n">
-        <v>234</v>
-      </c>
-      <c r="D67" t="n">
-        <v>234</v>
-      </c>
-      <c r="E67" t="n">
-        <v>232</v>
-      </c>
-      <c r="F67" t="n">
-        <v>17719.7475</v>
-      </c>
-      <c r="G67" t="n">
-        <v>221.2833333333333</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>234</v>
-      </c>
-      <c r="C68" t="n">
-        <v>234</v>
-      </c>
-      <c r="D68" t="n">
-        <v>234</v>
-      </c>
-      <c r="E68" t="n">
-        <v>234</v>
-      </c>
-      <c r="F68" t="n">
-        <v>94.60680000000001</v>
-      </c>
-      <c r="G68" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>234</v>
-      </c>
-      <c r="C69" t="n">
-        <v>234</v>
-      </c>
-      <c r="D69" t="n">
-        <v>234</v>
-      </c>
-      <c r="E69" t="n">
-        <v>232</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11287.8703</v>
-      </c>
-      <c r="G69" t="n">
-        <v>221.9166666666667</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>233</v>
-      </c>
-      <c r="C70" t="n">
-        <v>233</v>
-      </c>
-      <c r="D70" t="n">
-        <v>233</v>
-      </c>
-      <c r="E70" t="n">
-        <v>231</v>
-      </c>
-      <c r="F70" t="n">
-        <v>11320.0661</v>
-      </c>
-      <c r="G70" t="n">
-        <v>222.2333333333333</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>234</v>
-      </c>
-      <c r="C71" t="n">
-        <v>234</v>
-      </c>
-      <c r="D71" t="n">
-        <v>234</v>
-      </c>
-      <c r="E71" t="n">
-        <v>234</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G71" t="n">
-        <v>222.5333333333333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>234</v>
-      </c>
-      <c r="C72" t="n">
-        <v>234</v>
-      </c>
-      <c r="D72" t="n">
-        <v>234</v>
-      </c>
-      <c r="E72" t="n">
-        <v>234</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5543.5598</v>
-      </c>
-      <c r="G72" t="n">
-        <v>222.8166666666667</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>235</v>
-      </c>
-      <c r="C73" t="n">
-        <v>236</v>
-      </c>
-      <c r="D73" t="n">
-        <v>236</v>
-      </c>
-      <c r="E73" t="n">
-        <v>235</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3342.5317</v>
-      </c>
-      <c r="G73" t="n">
-        <v>223.1166666666667</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>236</v>
-      </c>
-      <c r="C74" t="n">
-        <v>233</v>
-      </c>
-      <c r="D74" t="n">
-        <v>236</v>
-      </c>
-      <c r="E74" t="n">
-        <v>233</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3307.1258</v>
-      </c>
-      <c r="G74" t="n">
-        <v>223.3666666666667</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>233</v>
-      </c>
-      <c r="C75" t="n">
-        <v>233</v>
-      </c>
-      <c r="D75" t="n">
-        <v>236</v>
-      </c>
-      <c r="E75" t="n">
-        <v>232</v>
-      </c>
-      <c r="F75" t="n">
-        <v>16956.6051</v>
-      </c>
-      <c r="G75" t="n">
-        <v>223.65</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>234</v>
-      </c>
-      <c r="C76" t="n">
-        <v>235</v>
-      </c>
-      <c r="D76" t="n">
-        <v>237</v>
-      </c>
-      <c r="E76" t="n">
-        <v>233</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11832.7662</v>
-      </c>
-      <c r="G76" t="n">
-        <v>223.95</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>235</v>
-      </c>
-      <c r="C77" t="n">
-        <v>235</v>
-      </c>
-      <c r="D77" t="n">
-        <v>235</v>
-      </c>
-      <c r="E77" t="n">
-        <v>235</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3322.78</v>
-      </c>
-      <c r="G77" t="n">
-        <v>224.2166666666667</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>235</v>
-      </c>
-      <c r="C78" t="n">
-        <v>235</v>
-      </c>
-      <c r="D78" t="n">
-        <v>235</v>
-      </c>
-      <c r="E78" t="n">
-        <v>235</v>
-      </c>
-      <c r="F78" t="n">
-        <v>554.3428</v>
-      </c>
-      <c r="G78" t="n">
-        <v>224.4666666666667</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>235</v>
-      </c>
-      <c r="C79" t="n">
-        <v>234</v>
-      </c>
-      <c r="D79" t="n">
-        <v>235</v>
-      </c>
-      <c r="E79" t="n">
-        <v>234</v>
-      </c>
-      <c r="F79" t="n">
-        <v>7436.6858</v>
-      </c>
-      <c r="G79" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>235</v>
-      </c>
-      <c r="C80" t="n">
-        <v>238</v>
-      </c>
-      <c r="D80" t="n">
-        <v>238</v>
-      </c>
-      <c r="E80" t="n">
-        <v>235</v>
-      </c>
-      <c r="F80" t="n">
-        <v>18933.3948</v>
-      </c>
-      <c r="G80" t="n">
-        <v>225</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>236</v>
-      </c>
-      <c r="C81" t="n">
-        <v>236</v>
-      </c>
-      <c r="D81" t="n">
-        <v>237</v>
-      </c>
-      <c r="E81" t="n">
-        <v>236</v>
-      </c>
-      <c r="F81" t="n">
-        <v>7360.4893</v>
-      </c>
-      <c r="G81" t="n">
-        <v>225.2833333333333</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>239</v>
-      </c>
-      <c r="C82" t="n">
-        <v>239</v>
-      </c>
-      <c r="D82" t="n">
-        <v>239</v>
-      </c>
-      <c r="E82" t="n">
-        <v>239</v>
-      </c>
-      <c r="F82" t="n">
-        <v>166.3829</v>
-      </c>
-      <c r="G82" t="n">
-        <v>225.6166666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>239</v>
-      </c>
-      <c r="C83" t="n">
-        <v>239</v>
-      </c>
-      <c r="D83" t="n">
-        <v>239</v>
-      </c>
-      <c r="E83" t="n">
-        <v>239</v>
-      </c>
-      <c r="F83" t="n">
-        <v>846.3556</v>
-      </c>
-      <c r="G83" t="n">
-        <v>225.95</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
